--- a/ig/ch-epreg/StructureDefinition-ch-epreg-encounter-child.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-encounter-child.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile constrains the Encounter resource to represent a pregnancy visit from the child's perspective.</t>
+    <t>This profile constrains the Encounter resource to represent a pregnancy examination from the child's perspective.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -625,7 +625,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -722,7 +722,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -910,7 +910,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -934,7 +934,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1037,7 +1037,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1082,7 +1082,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1239,7 +1239,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1382,7 +1382,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1400,7 +1400,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1435,7 +1435,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1488,7 +1488,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1693,7 +1693,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1714,7 +1714,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1735,7 +1735,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1860,7 +1860,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
